--- a/Clouds/Lab2/Azure team 9.xlsx
+++ b/Clouds/Lab2/Azure team 9.xlsx
@@ -40,66 +40,69 @@
     <t>Consumed Service</t>
   </si>
   <si>
+    <t>Compute</t>
+  </si>
+  <si>
+    <t>Data Lake Analytics</t>
+  </si>
+  <si>
+    <t>Analytics Units</t>
+  </si>
+  <si>
+    <t>Pay-as-you-go data processing</t>
+  </si>
+  <si>
+    <t>Pay-as-you-go Analytics Units</t>
+  </si>
+  <si>
+    <t>Microsoft.DataLakeAnalytics</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Storage&amp;Content Delivery</t>
+  </si>
+  <si>
+    <t>Data Lake Store</t>
+  </si>
+  <si>
+    <t>Data at Rest</t>
+  </si>
+  <si>
+    <t>Pay-as-you-go Data at Rest</t>
+  </si>
+  <si>
+    <t>Microsoft.DataLakeStore</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>%Transactions%</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>SQL Data Warehouse</t>
+  </si>
+  <si>
+    <t>100 DWUs</t>
+  </si>
+  <si>
+    <t>Compute Optimized</t>
+  </si>
+  <si>
+    <t>Compute Optimized%</t>
+  </si>
+  <si>
+    <t>Microsoft.Sql</t>
+  </si>
+  <si>
     <t>Cloud Services</t>
   </si>
   <si>
-    <t>Analytics</t>
-  </si>
-  <si>
-    <t>Data Lake Analytics</t>
-  </si>
-  <si>
-    <t>Analytics Units</t>
-  </si>
-  <si>
-    <t>Pay-as-you-go Analytics Units</t>
-  </si>
-  <si>
-    <t>Microsoft.DataLakeAnalytics</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Storage&amp;Content Delivery</t>
-  </si>
-  <si>
-    <t>Data Lake Store</t>
-  </si>
-  <si>
-    <t>Data at Rest</t>
-  </si>
-  <si>
-    <t>Pay-as-you-go Data at Rest</t>
-  </si>
-  <si>
-    <t>Microsoft.DataLakeStore</t>
-  </si>
-  <si>
-    <t>Transactions</t>
-  </si>
-  <si>
-    <t>%Transactions%</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>SQL Data Warehouse</t>
-  </si>
-  <si>
-    <t>100 DWUs</t>
-  </si>
-  <si>
-    <t>Compute Optimized</t>
-  </si>
-  <si>
-    <t>Compute Optimized%</t>
-  </si>
-  <si>
-    <t>Microsoft.Sql</t>
-  </si>
-  <si>
     <t>Artificial Intelligence</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
   </si>
   <si>
     <t>Microsoft.MachineLearningServices</t>
-  </si>
-  <si>
-    <t>Compute</t>
   </si>
   <si>
     <t>Container Instances</t>
@@ -623,7 +623,7 @@
     <col customWidth="1" min="2" max="2" width="20.63"/>
     <col customWidth="1" min="3" max="3" width="27.38"/>
     <col customWidth="1" min="4" max="4" width="23.0"/>
-    <col customWidth="1" min="5" max="5" width="16.75"/>
+    <col customWidth="1" min="5" max="5" width="24.13"/>
     <col customWidth="1" min="6" max="6" width="19.25"/>
     <col customWidth="1" min="7" max="7" width="18.5"/>
     <col customWidth="1" min="8" max="8" width="26.25"/>
@@ -664,19 +664,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
@@ -771,37 +771,37 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>36</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>36</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>36</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>36</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>36</v>
@@ -939,10 +939,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>48</v>
@@ -1062,10 +1062,10 @@
         <v>60</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>60</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>69</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>69</v>
@@ -1205,10 +1205,10 @@
         <v>74</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>74</v>
@@ -1257,17 +1257,17 @@
         <v>77</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>78</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>93</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>93</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="35">
       <c r="A35" s="11" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>93</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="36">
       <c r="A36" s="11" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>93</v>
